--- a/docs/python_r.xlsx
+++ b/docs/python_r.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegsemenov/Programming/python-learning/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D873481D-620F-A846-B18F-84EDC678BBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690886E5-DEB5-064A-98F4-60C660F68D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13820" windowHeight="18000" activeTab="2" xr2:uid="{A4266A49-3AAD-5049-B45E-BE7854D2203E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13820" windowHeight="18000" activeTab="4" xr2:uid="{A4266A49-3AAD-5049-B45E-BE7854D2203E}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="2" r:id="rId1"/>
     <sheet name="String" sheetId="4" r:id="rId2"/>
     <sheet name="List" sheetId="5" r:id="rId3"/>
-    <sheet name="Regex" sheetId="6" r:id="rId4"/>
-    <sheet name="Docstring" sheetId="7" r:id="rId5"/>
-    <sheet name="String (5)" sheetId="8" r:id="rId6"/>
+    <sheet name="Tuple" sheetId="8" r:id="rId4"/>
+    <sheet name="Set" sheetId="10" r:id="rId5"/>
+    <sheet name="Regex" sheetId="6" r:id="rId6"/>
+    <sheet name="Docstring" sheetId="7" r:id="rId7"/>
+    <sheet name="String (6)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24018,6 +24020,4642 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{FC3C4CB0-795C-1C4E-AC74-5F06C61CCEA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_tuple = (1, 2, 3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">empty_tuple = ()
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9885C26C-2DA1-A64C-A0E2-97E274A6649B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Без запятой это будет просто значение в скобках.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{70F05E96-CD55-2B49-B4E3-068225C940A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_tuple = 1, 2, 3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>single_e_tuple = 1,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{A8CBE0B2-241D-EE4E-8EE0-EE7C866EA34B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>iterable — необязательный параметр. Это итерируемый объект (например, список, строка, множество), из которого будет создан кортеж. Если параметр не указан, будет создан пустой кортеж ().</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{3042628E-806D-A942-BD78-6F4209A25B86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_tuple = tuple([1, 2, 3])
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>another_tuple = tuple("hello")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{DD85CB15-767F-3242-9DCB-6445BD858F9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Пример распаковки кортежей
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Базовая распаковка</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Есть кортеж из трёх элементов
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">coordinates = (10, 20, 30)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Распаковываем значения кортежа в три переменные
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">x, y, z = coordinates
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(x)  # Вывод: 10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(y)  # Вывод: 20
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(z)  # Вывод: 30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Распаковка с использованием * для оставшихся элементов</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Кортеж с большим количеством элементов
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = (1, 2, 3, 4, 5)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Распаковываем первые два элемента, остальные помещаем в переменную 'others'
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a, b, *others = numbers
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(a)       # Вывод: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(b)       # Вывод: 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(others)  # Вывод: [3, 4, 5]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t> Распаковка с * в середине</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = (1, 2, 3, 4, 5)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a, *middle, e = numbers
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(a)       # 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(middle)  # [2, 3, 4]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(e)       # 5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{5C1F5A3B-AC2B-DC4B-A7A6-9E87C37EC844}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Примечание</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Множества не могут содержать изменяемые объекты (например, списки), но могут содержать изменяемые, такие как кортежи.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Все элементы в множестве уникальны; если вы попытаетесь добавить дубликаты, они будут игнорироваться.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{88D5EB1D-8E5F-534A-8F25-D2C88CFAD984}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>iterable: Необязательный аргумент. Это любой итерируемый объект (например, список, кортеж, строка), из которого будет создано множество. Если аргумент не указан, будет создано пустое множество.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{421C39E8-B47B-FD44-B3EE-D5DA3C857314}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Примечания</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Если переданный итерируемый объект содержит дубликаты, они будут удалены в итоговом множестве.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Множества не могут содержать изменяемые объекты, такие как списки, но могут содержать неизменяемые, такие как кортежи.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{907D13F7-0F83-514E-A4B9-0921BF97E230}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Уникальные значения</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Множества идеально подходят для хранения уникальных значений и фильтрации дубликатов.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Операции над множествами</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Вы можете выполнять различные операции над множествами, такие как объединение, пересечение, разность и симметрическая разность.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание множества из итерируемого объекта</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Вы можете передать любой итерируемый объект (например, список, кортеж или строку) в функцию set(), чтобы создать множество.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Создание множества из списка
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_list = [1, 2, 2, 3, 4]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_set = set(my_list)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # Вывод: {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Создание множества из строки
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_string = "hello"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">string_set = set(my_string)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(string_set)  # Вывод: {'h', 'e', 'l', 'o'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание пустого множества</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Чтобы создать пустое множество, необходимо использовать set(), так как фигурные скобки создадут пустой словарь.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">empty_set = set()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(empty_set)  # Вывод: set()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление дубликатов</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">При создании множества все дубликаты удаляются автоматически.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_list_with_duplicates = [1, 2, 2, 3, 4, 4, 5]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">unique_set = set(my_list_with_duplicates)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(unique_set)  # Вывод: {1, 2, 3, 4, 5}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{EBCD20FC-429B-6748-96C0-80A7C2BDBF52}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание множества из списка</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_list = [1, 2, 2, 3]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_set = set(my_list)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # Вывод: {1, 2, 3}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание множества из строки</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_string = "hello"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">string_set = set(my_string)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(string_set)  # Вывод: {'h', 'e', 'l', 'o'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание пустого множества</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">empty_set = set()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(empty_set)  # Вывод: set()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание множества из кортежа</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_tuple = (1, 2, 3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">my_set_from_tuple = set(my_tuple)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(my_set_from_tuple)  # Вывод: {1, 2, 3}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{104FD3B5-6047-274A-B7EB-6E362F706913}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>*others: Один или несколько итерируемых объектов (включая множества), которые вы хотите объединить с текущим множеством.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{A00A9A1B-92A0-7943-997D-6680D5FD149A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Важные моменты</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Метод union() не изменяет исходные множества. Он возвращает новое множество, содержащее объединенные элементы.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Если в множествах есть дубликаты, они будут проигнорированы в результирующем множестве, так как множества хранят только уникальные элементы.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{2A2D79DF-1DA4-8E4E-8FFC-FC59D17F2835}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Пример использования union()</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание двух множеств
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set1 = {1, 2, 3}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set2 = {3, 4, 5}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Объединение множеств
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">union_set = set1.union(set2)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого нового множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(union_set)  # Вывод: {1, 2, 3, 4, 5}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Объединение нескольких множеств</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set3 = {5, 6, 7}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Объединение нескольких множеств
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">union_all = set1.union(set2, set3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого нового множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(union_all)  # Вывод: {1, 2, 3, 4, 5, 6, 7}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Альтернативный синтаксис</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Вы также можете использовать оператор | для объединения множеств:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Использование оператора |
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">union_set_alt = set1 | set2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>print(union_set_alt)  # Вывод: {1, 2, 3, 4, 5}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{90DF3624-4AC9-7D4E-A065-FAAE34862F8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>*others: Один или несколько итерируемых объектов (включая множества), которые вы хотите использовать для нахождения пересечения с текущим множеством.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{A2F5900F-9CCF-934F-92D2-C8BB8FEE46AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Важные моменты</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• Метод </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">intersection() </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>не изменяет исходные множества. Он возвращает новое множество, содержащее элементы, присутствующие во всех множеств.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• Если ни один из элементов не найден в пересечении, возвращаемое множество будет пустым.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{98DFE70E-9958-364F-BFB8-E0AC4EB6FAA6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Пример использования intersection()</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание двух множеств
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set1 = {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set2 = {3, 4, 5, 6}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Нахождение пересечения
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">intersection_set = set1.intersection(set2)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого нового множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(intersection_set)  # Вывод: {3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Пересечение нескольких множеств</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set3 = {4, 5, 6, 7}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Нахождение пересечения нескольких множеств
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">intersection_all = set1.intersection(set2, set3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого нового множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(intersection_all)  # Вывод: {4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Альтернативный синтаксис</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Вы также можете использовать оператор &amp; для нахождения пересечения множеств:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Использование оператора &amp;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">intersection_set_alt = set1 &amp; set2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>print(intersection_set_alt)  # Вывод: {3, 4}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{D24CD75E-6854-A44F-BD56-DD458AA1966C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>*others: Один или несколько итерируемых объектов (включая множества), которые вы хотите использовать для нахождения разности с текущим множеством.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{1FBDA146-A709-F74A-95C8-F43C0CCA4164}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• Метод </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">difference() </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>не изменяет исходные множества. Он возвращает новое множество, содержащее элементы, которые есть в первом множестве и отсутствуют в остальных.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• Если нет элементов, которые соответствуют условию, возвращаемое множество будет пустым.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{74F7C8CF-C124-6B4C-BF80-1EAAEE8CC4FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Пример использования difference()</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание двух множеств
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set1 = {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set2 = {3, 4, 5, 6}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Нахождение разности
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">difference_set = set1.difference(set2)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого нового множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(difference_set)  # Вывод: {1, 2}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Разность с несколькими множествами</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set3 = {2, 5, 6}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Нахождение разности с несколькими множествами
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">difference_all = set1.difference(set2, set3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого нового множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(difference_all)  # Вывод: {1}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Альтернативный синтаксис</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Вы также можете использовать оператор - для нахождения разности множеств:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Использование оператора -
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">difference_set_alt = set1 - set2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>print(difference_set_alt)  # Вывод: {1, 2}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{AFC6D5D5-C4D2-8244-8F6F-739307C70E3D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>other: Множество, с которым вы хотите найти симметричную разность.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{6C58FD11-ED10-EC4F-BBA0-72CB63FA6B50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Важные моменты</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• Метод </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">symmetric_difference() </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">не изменяет исходные множества. Он возвращает новое множество, содержащее элементы, которые уникальны для каждого из множеств.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>• Если оба множества пусты или не имеют уникальных элементов, возвращаемое множество будет пустым.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{7418094A-57AD-BD45-A7B9-5C94CF60CDB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Пример использования symmetric_difference()</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Создание двух множеств
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">set1 = {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">set2 = {3, 4, 5, 6}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Нахождение симметричной разности
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">symmetric_difference_set = set1.symmetric_difference(set2)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого нового множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(symmetric_difference_set)  # Вывод: {1, 2, 5, 6}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Альтернативный синтаксис</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Вы также можете использовать оператор ^ для нахождения симметричной разности множеств:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"># Использование оператора ^
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">symmetric_difference_set_alt = set1 ^ set2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(symmetric_difference_set_alt)  # Вывод: {1, 2, 5, 6}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{59F8C65E-01C4-EA4C-B54E-F1698B671FDB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>element: Элемент, который вы хотите добавить в множество.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{65308190-1C01-EE49-996A-D7560B4B5686}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Если элемент, который вы пытаетесь добавить, уже существует в множестве, метод просто игнорирует его, так как множества хранят только уникальные элементы.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{FCC89D15-5D8C-9043-97D5-361404D270A4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set = {1, 2, 3}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Добавление элемента
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set.add(4)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # Вывод: {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Попытка добавить дубликат
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set.add(2)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # Вывод: {1, 2, 3, 4} (дубликат игнорируется)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Добавление другого типа элемента
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set.add("hello")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>print(my_set)  # Вывод: {1, 2, 3, 4, 'hello'}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{CD60D761-57B0-6747-91D4-734DF2546C26}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• *other_sets: одна или несколько коллекций (множество, список, кортеж и т. д.), элементы которых будут добавлены в текущее множество.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{7CDF5CCF-9D06-304A-907C-335393E18831}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Особенности</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Метод update() изменяет множество, добавляя в него элементы из других коллекций.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Дублирующиеся элементы не добавляются, так как множество хранит только уникальные значения.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{D6865152-446E-8843-87F2-CA20C5FE1850}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Объединение множества с другим множеством
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s1 = {1, 2, 3}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s2 = {3, 4, 5}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s1.update(s2)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(s1)  # Вывод: {1, 2, 3, 4, 5}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Добавление элементов из списка</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s = {1, 2, 3}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s.update([4, 5, 6])
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(s)  # Вывод: {1, 2, 3, 4, 5, 6}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Добавление элементов из нескольких коллекций</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s = {1, 2, 3}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">s.update([4, 5], (6, 7), {8, 9})
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(s)  # Вывод: {1, 2, 3, 4, 5, 6, 7, 8, 9}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{85A8D9A1-E39D-D84D-911F-E7830071BBCE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>element: Элемент, который вы хотите удалить из множества.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{D3CD2937-9780-5D4B-B3D0-E2B78D80DC2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set = {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Удаление элемента
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set.discard(3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # Вывод: {1, 2, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Попытка удалить элемент, который не существует в множестве
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set.discard(5)  # Ничего не произойдет, ошибка не будет вызвана
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # Вывод: {1, 2, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Удаление элемента из пустого множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">empty_set = set()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">empty_set.discard(1)  # Ничего не произойдет
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>print(empty_set)  # Вывод: set()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{24E60384-F6FF-644D-A950-3D8658C18071}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>element: Элемент, который вы хотите удалить из множества.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{F1242582-17C6-0B47-8CDB-AC8AACC9A969}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set = {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Удаление элемента
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set.remove(3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Вывод: {1, 2, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Попытка удалить элемент, который не существует в множестве
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">try:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    my_set.remove(5)  # </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Это вызовет ошибку
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">except KeyError:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    print("</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Элемент 5 не найден в множестве.")  # Вывод: Элемент 5 не найден в множестве.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Удаление элемента из пустого множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">empty_set = set()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">try:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    empty_set.remove(1)  # </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Это также вызовет ошибку
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">except KeyError:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    print("</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Элемент 1 не найден в пустом множестве.")  # Вывод: Элемент 1 не найден в пустом множестве.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{669C396B-EB18-F643-B3E8-513E8CF917CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set = {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Удаление всех элементов из множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set.clear()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Вывод: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>set() (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">пустое множество)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка, является ли множество пустым
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">if not my_set:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    print("</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Множество пустое.")  # Вывод: Множество пустое.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{D3AA1DC0-03FF-1245-BBE8-417D8029CB27}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Метод pop() изменяет множество, удаляя из него элемент, и возвращает этот элемент.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Если множество пустое, вызов pop() вызовет исключение KeyError.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Поскольку множества неупорядочены, нельзя предсказать, какой элемент будет удалён при вызове pop().</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{251AEA4E-3613-D948-9B6A-2D01C8DAE025}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_set = {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Удаление и получение произвольного элемента
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">removed_element = my_set.pop()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(f"Удаленный элемент: {removed_element}")  # Вывод: Удаленный элемент: 1 (или 2, 3, 4, зависит от реализации)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого множества после удаления элемента
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_set)  # Вывод: {2, 3, 4} (или другое множество, в зависимости от удаленного элемента)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Попытка вызвать pop() на пустом множестве
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">empty_set = set()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">try:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    empty_set.pop()  # Это вызовет ошибку
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">except KeyError:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    print("Невозможно удалить элемент из пустого множества.")  # Вывод: Невозможно удалить элемент из пустого множества.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{408B8A2C-9140-5143-8C12-D8F9B406A9C6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Поверхностная копия</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">: Метод </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">copy() </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">создает поверхностную копию множества, что означает, что если элементы множества являются неизменяемыми (например, числа или строки), изменения в оригинале не повлияют на копию.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>• Если же элементы множества сами являются изменяемыми (например, списки или другие множества), изменения в этих элементах могут быть отражены в обеих копиях, так как они ссылаются на один и тот же объект.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{A26E4631-AE86-C84C-A0C2-525A6B2586D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">original_set = {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание копии множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">copied_set = original_set.copy()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого обоих множеств
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(f"Оригинальное множество: {original_set}")  # Вывод: {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(f"Копия множества: {copied_set}")  # Вывод: {1, 2, 3, 4}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Изменение оригинального множества
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">original_set.add(5)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Проверка содержимого после изменения оригинала
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(f"Оригинальное множество после изменения: {original_set}")  # Вывод: {1, 2, 3, 4, 5}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>print(f"Копия множества после изменения оригинала: {copied_set}")  # Вывод: {1, 2, 3, 4}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{45501A09-6FC3-7744-B120-0BA628925652}">
       <text>
         <r>
@@ -24360,7 +28998,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="518">
   <si>
     <t>Термин</t>
   </si>
@@ -25845,6 +30483,401 @@
   </si>
   <si>
     <t>Основные операции со списками</t>
+  </si>
+  <si>
+    <t>Без литерала</t>
+  </si>
+  <si>
+    <t>my_tuple = (value1, value2, value3)
+empty_tuple = ()</t>
+  </si>
+  <si>
+    <t>Пустой можно создать 
+empty_tuple = ()</t>
+  </si>
+  <si>
+    <t>my_tuple = value1, value2, value3
+single_e_tuple = value1,</t>
+  </si>
+  <si>
+    <t>Можно создать кортеж, просто перечислив элементы через запятую. Круглые скобки не обязательны.</t>
+  </si>
+  <si>
+    <t>Чтобы создать кортеж с одним элементом, необходимо поставить запятую после этого элемента.</t>
+  </si>
+  <si>
+    <t>tuple([iterable])</t>
+  </si>
+  <si>
+    <t>tuple() — это встроенная функция в Python, которая используется для создания кортежа.</t>
+  </si>
+  <si>
+    <t>Tuple — это неизменяемая упорядоченная коллекция элементов.</t>
+  </si>
+  <si>
+    <t>Основные свойства</t>
+  </si>
+  <si>
+    <t>Допускаются дубликаты.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Неизменяемость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → нельзя изменять элементы (нет append, remove, pop и т.д.).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Упорядоченность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → сохраняется порядок элементов.</t>
+    </r>
+  </si>
+  <si>
+    <t>Распаковка tuple</t>
+  </si>
+  <si>
+    <t>variable1, variable2, ... , variableN = tuple
+variable1, variable2, *variableN = tuple
+var1, *varN, varLast = tuple</t>
+  </si>
+  <si>
+    <t>Операции с tuple</t>
+  </si>
+  <si>
+    <t>len(t)</t>
+  </si>
+  <si>
+    <t>длина tuple</t>
+  </si>
+  <si>
+    <t>t[i]</t>
+  </si>
+  <si>
+    <t>доступ к элементу по индексу</t>
+  </si>
+  <si>
+    <t>t[i:j]</t>
+  </si>
+  <si>
+    <t>срез tuple</t>
+  </si>
+  <si>
+    <t>t1 + t2</t>
+  </si>
+  <si>
+    <t>конкатенация tuple</t>
+  </si>
+  <si>
+    <t>t * n</t>
+  </si>
+  <si>
+    <t>повтор tuple n раз</t>
+  </si>
+  <si>
+    <t>in, not in</t>
+  </si>
+  <si>
+    <t>проверка наличия элемента</t>
+  </si>
+  <si>
+    <t>t = (1, 2, 3, 4)
+print(len(t))    # 4</t>
+  </si>
+  <si>
+    <t>print(t[1])      # 2</t>
+  </si>
+  <si>
+    <t>print(t[1:3])    # (2, 3)</t>
+  </si>
+  <si>
+    <t>print(t + (5, 6))# (1, 2, 3, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t>print(t * 2)     # (1, 2, 3, 4, 1, 2, 3, 4)</t>
+  </si>
+  <si>
+    <t>Методы tuple</t>
+  </si>
+  <si>
+    <t>tuple.count(value)</t>
+  </si>
+  <si>
+    <t>tuple.index(value)</t>
+  </si>
+  <si>
+    <t>Возвращает индекс первого вхождения указанного значения. Если значение не найдено, возникает ошибка ValueError.</t>
+  </si>
+  <si>
+    <t>Преимущества tuple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	•	Быстрее по сравнению со списками.
+	•	Защищают данные от случайного изменения.
+	•	Можно использовать в качестве ключа словаря (dict).</t>
+  </si>
+  <si>
+    <t>Set — это неупорядоченная коллекция уникальных элементов.</t>
+  </si>
+  <si>
+    <t>WARNING!!!</t>
+  </si>
+  <si>
+    <t># Пример создания множества с элементами
+my_set = {1, 2, 3, 4}
+print(my_set)  # Вывод: {1, 2, 3, 4}</t>
+  </si>
+  <si>
+    <t>my_set = {value1,value2,value3}</t>
+  </si>
+  <si>
+    <t>set([iterable])</t>
+  </si>
+  <si>
+    <t>В Python функция set() используется для создания множеств (sets).</t>
+  </si>
+  <si>
+    <t>Применение множества</t>
+  </si>
+  <si>
+    <r>
+      <t>Уникальность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → элементы не повторяются.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Неупорядоченность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → порядок элементов не гарантируется.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Изменяемость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> → можно добавлять и удалять элементы.</t>
+    </r>
+  </si>
+  <si>
+    <t>Основные операции с set</t>
+  </si>
+  <si>
+    <t>len(s)</t>
+  </si>
+  <si>
+    <t>количество элементов</t>
+  </si>
+  <si>
+    <t>x in s</t>
+  </si>
+  <si>
+    <t>s.add(x)</t>
+  </si>
+  <si>
+    <t>добавление элемента</t>
+  </si>
+  <si>
+    <t>s.remove(x)</t>
+  </si>
+  <si>
+    <t>удаление элемента (ошибка, если нет)</t>
+  </si>
+  <si>
+    <t>s.discard(x)</t>
+  </si>
+  <si>
+    <t>удаление элемента (без ошибки)</t>
+  </si>
+  <si>
+    <t>s.pop()</t>
+  </si>
+  <si>
+    <t>удаление и возвращение случайного элемента</t>
+  </si>
+  <si>
+    <t>s.clear()</t>
+  </si>
+  <si>
+    <t>очистка </t>
+  </si>
+  <si>
+    <t>Математические операции над множествами</t>
+  </si>
+  <si>
+    <t>Метод union() в Python используется для объединения двух или более множеств (set).</t>
+  </si>
+  <si>
+    <t>Он возвращает новое множество, содержащее все уникальные элементы из всех объединяемых множеств.</t>
+  </si>
+  <si>
+    <t>не возвращает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод intersection() в Python используется для нахождения пересечения двух или более множеств (set). </t>
+  </si>
+  <si>
+    <t>Он возвращает новое множество, содержащее только те элементы, которые присутствуют во всех указанных множествах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод difference() в Python используется для нахождения разности между множествами (set). </t>
+  </si>
+  <si>
+    <t>Он возвращает новое множество, содержащее элементы, которые присутствуют в первом множестве, но отсутствуют в других указанных множествах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод symmetric_difference() в Python используется для нахождения симметричной разности между множествами (set). </t>
+  </si>
+  <si>
+    <t>Он возвращает новое множество, содержащее элементы, которые находятся в одном из множеств, но не в обоих. Это означает, что метод возвращает элементы, которые уникальны для каждого из множеств.</t>
+  </si>
+  <si>
+    <t>set.union(*others) или |</t>
+  </si>
+  <si>
+    <t>set.intersection(*others) или &amp;</t>
+  </si>
+  <si>
+    <t>set.difference(*others) или -</t>
+  </si>
+  <si>
+    <t>set.symmetric_difference(other) или ^</t>
+  </si>
+  <si>
+    <t>Методы set</t>
+  </si>
+  <si>
+    <t>set.add(element)</t>
+  </si>
+  <si>
+    <t>Метод add() в Python используется для добавления одного элемента в множество (set).</t>
+  </si>
+  <si>
+    <t>Этот метод изменяет множество на месте и не возвращает значения.</t>
+  </si>
+  <si>
+    <t>set.update(*other_sets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод update() в Python используется для добавления элементов из других коллекций (например, множества, списка, кортежа или словаря) в текущее множество. </t>
+  </si>
+  <si>
+    <t>Особенности</t>
+  </si>
+  <si>
+    <t>set.discard(element)</t>
+  </si>
+  <si>
+    <t>Метод discard() в Python используется для удаления указанного элемента из множества (set).</t>
+  </si>
+  <si>
+    <t>В отличие от метода remove(), который вызывает ошибку, если элемент не найден, discard() просто игнорирует отсутствие элемента и не вызывает исключения.</t>
+  </si>
+  <si>
+    <t>set.remove(element)</t>
+  </si>
+  <si>
+    <t>Метод remove() в Python используется для удаления указанного элемента из множества (set).</t>
+  </si>
+  <si>
+    <t>Если элемент, который вы пытаетесь удалить, отсутствует в множестве, будет вызвано исключение KeyError.</t>
+  </si>
+  <si>
+    <t>set.clear()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод clear() в Python используется для удаления всех элементов из множества (set). </t>
+  </si>
+  <si>
+    <t>После вызова этого метода множество станет пустым.</t>
+  </si>
+  <si>
+    <t>set.pop()</t>
+  </si>
+  <si>
+    <t>Метод pop() в Python используется для удаления и возвращения произвольного элемента из множества (set).</t>
+  </si>
+  <si>
+    <t>Это значит, что метод не гарантирует удаление конкретного элемента, так как множества являются неупорядоченными коллекциями.</t>
+  </si>
+  <si>
+    <t>возвращает удаленный элемент.</t>
+  </si>
+  <si>
+    <t>set.copy()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод copy() в Python используется для создания поверхностной копии множества (set). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важные моменты </t>
+  </si>
+  <si>
+    <t>Применение set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	•	Удаление дубликатов из списка.
+	•	Проверка пересечения множеств.
+	•	Быстрый поиск элемента.
+	•	Математические операции над множествами.</t>
   </si>
 </sst>
 </file>
@@ -25933,7 +30966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -26046,11 +31079,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -26223,6 +31280,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -27836,8 +32908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B27660-EE1F-FE4F-B837-D80E0C5DA1D5}">
   <dimension ref="A2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28291,6 +33363,874 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F240AC3B-D437-C14B-AF82-87D43D6A8125}">
+  <dimension ref="A2:E37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="58"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
+      <c r="B11" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="58"/>
+      <c r="B12" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="58"/>
+      <c r="B13" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="58"/>
+      <c r="B14" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372A9287-2836-E549-83E2-B80B810FCB5B}">
+  <dimension ref="A2:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="58"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="58"/>
+      <c r="B9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="58"/>
+      <c r="B10" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
+      <c r="B11" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="58"/>
+      <c r="B12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="58"/>
+      <c r="B13" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="58"/>
+      <c r="B16" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="58"/>
+      <c r="B17" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="58"/>
+      <c r="B20" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="58"/>
+      <c r="B21" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B01DB2-B527-6341-A936-A3E0C717D677}">
   <dimension ref="A2:E45"/>
   <sheetViews>
@@ -28805,7 +34745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB05AA4-67E3-324D-83FA-9E98FFEBAC8D}">
   <dimension ref="A2:F38"/>
   <sheetViews>
@@ -29177,8 +35117,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F240AC3B-D437-C14B-AF82-87D43D6A8125}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679D39D3-6E46-0746-86C1-3A2DE9EAEA68}">
   <dimension ref="A2:E37"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">

--- a/docs/python_r.xlsx
+++ b/docs/python_r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olegsemenov/Programming/python-learning/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27EE8CF-0A78-A04F-B587-4D0A1984AD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856F375F-2E65-3D40-BDB3-B7824310D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13580" windowHeight="18000" firstSheet="1" activeTab="4" xr2:uid="{A4266A49-3AAD-5049-B45E-BE7854D2203E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" firstSheet="3" activeTab="5" xr2:uid="{A4266A49-3AAD-5049-B45E-BE7854D2203E}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="List" sheetId="5" r:id="rId3"/>
     <sheet name="Tuple" sheetId="8" r:id="rId4"/>
     <sheet name="Set" sheetId="10" r:id="rId5"/>
-    <sheet name="Regex" sheetId="6" r:id="rId6"/>
-    <sheet name="Docstring" sheetId="7" r:id="rId7"/>
-    <sheet name="String (6)" sheetId="9" r:id="rId8"/>
+    <sheet name="Dict" sheetId="9" r:id="rId6"/>
+    <sheet name="Regex" sheetId="6" r:id="rId7"/>
+    <sheet name="Docstring" sheetId="7" r:id="rId8"/>
+    <sheet name="String (7)" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34610,6 +34611,5185 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{36A4B4BC-59CB-6A47-9FF2-5EAE0625D331}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Каждая пара состоит из ключа и значения, разделённых двоеточием :.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Ключи должны быть уникальными и неизменяемыми (например, строки или числа), значения могут быть любого типа.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Использование литерала {} — самый распространённый способ создания словарей.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{6D0D6494-2D98-E84F-AA3D-4DE2378ED8E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Создание словаря с помощью литерала
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">person = {
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    "name": "Alice",
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    "age": 25,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    "city": "New York"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(person)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t># Вывод: {'name': 'Alice', 'age': 25, 'city': 'New York'}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{7C359673-3024-414C-B0A1-E174A47FACCA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• dict() создаёт словарь, где ключи и значения можно передавать различными способами.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• При использовании именованных аргументов ключи должны быть строками и валидными именами переменных.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• dict() также полезен для создания копий словарей или преобразования других итерируемых структур в словарь.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{75F7EB6F-E0A3-5441-97ED-F6AB0DA48352}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание пустого словаря</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">empty_dict = dict()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(empty_dict)  # Вывод: {}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Использование именованных аргументов</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">person = dict(name="Alice", age=25, city="New York")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(person)  # Вывод: {'name': 'Alice', 'age': 25, 'city': 'New York'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание из списка кортежей</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">pairs = [("name", "Alice"), ("age", 25), ("city", "New York")]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">person = dict(pairs)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(person)  # Вывод: {'name': 'Alice', 'age': 25, 'city': 'New York'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание из другого словаря</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">original_dict = {"name": "Alice", "age": 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">copy_dict = dict(original_dict)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(copy_dict)  # Вывод: {'name': 'Alice', 'age': 25}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{319EC399-91BB-7947-BA3C-CE398CD6A59B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• iterable: итерируемый объект, содержащий ключи для нового словаря (например, список, кортеж или строка).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• value: значение, которое будет присвоено всем ключам (по умолчанию None).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{5AF09140-D366-3E44-880C-FE08340AD8C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Метод fromkeys() удобен для создания словаря с набором ключей и одинаковыми значениями.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• fromkeys() — это класс-метод, поэтому вызывается непосредственно от класса dict, а не от экземпляра словаря.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{FF20D1D4-BB22-7748-A6D9-598AD0C5627E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание словаря с одинаковыми значениями</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">keys = ["name", "age", "city"]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">default_dict = dict.fromkeys(keys, "unknown")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(default_dict)  # Вывод: {'name': 'unknown', 'age': 'unknown', 'city': 'unknown'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Использование значения по умолчанию (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>None</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">keys = ["name", "age", "city"]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">default_dict = dict.fromkeys(keys)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(default_dict)  # Вывод: {'name': None, 'age': None, 'city': None}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Создание словаря из строки (каждый символ — ключ)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">default_dict = dict.fromkeys("abc", 0)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(default_dict)  # Вывод: {'a': 0, 'b': 0, 'c': 0}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{425ED067-1C4D-5C4E-955D-BF20560D8D14}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">words = ["apple", "banana", "cherry"]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(min(words, key=len))  # "apple" — самая короткая строка
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(max(words, key=len))  # "banana" — самая длинная строка
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(min([], default=0))           # 0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(max([], default="empty"))     # "empty"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">d = {"a": 3, "b": 1, "c": 2}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(min(d))                    # "a" — минимальный ключ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(max(d))                    # "c" — максимальный ключ
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(min(d, key=d.get))        # "b" — ключ с минимальным значением
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(max(d, key=d.get))        # "a" — ключ с максимальным значением
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{B68D5608-8D1E-3748-85BF-5F90556134CA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>iterable</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Итерируемый объект, элементы которого будут складываться (например, список или кортеж).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>start</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>: Необязательный параметр, который по умолчанию равен 0. Он добавляется к сумме.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{06CD753D-0C83-964C-BDF4-BFE4C9059064}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Важно знать</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Если переданный итерируемый объект пуст и начальное значение не задано, sum() вернет 0.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Для более сложных операций суммирования (например, суммирование по условиям) можно использовать функции, такие как filter(), вместе с sum().</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{A947DBB7-623A-E742-A6D8-F543E4FA5BB6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Суммирование элементов списка</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = [1, 2, 3, 4, 5]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">result = sum(numbers)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(result)  # Вывод: 15
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Суммирование с начальным значением</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = [1, 2, 3, 4, 5]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">result = sum(numbers, 10)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(result)  # Вывод: 25 (15 + 10)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Суммирование элементов кортежа</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = (10, 20, 30)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">result = sum(numbers)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(result)  # Вывод: 60
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Суммирование элементов множества</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = {1, 2, 3, 4, 5}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">result = sum(numbers)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(result)  # Вывод: 15
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Суммирование с использованием генератора</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">result = sum(x for x in range(1, 101))  # Сумма чисел от 1 до 100
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(result)  # Вывод: 5050</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{3064588C-14EA-1641-8E63-776D306519FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• iterable — любой итерируемый объект, например, список, кортеж, строка, множество, генератор и т. д.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Возвращает:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• True, если все элементы истинны или итерируемый объект пустой.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• False, если хотя бы один элемент ложный.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{37BF2D8C-3BDC-8A4F-93B8-B178E2F2138E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Сравнение с циклом
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Эквивалентное выражение с использованием цикла:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = [2, 4, 6, 8]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">result = True
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">for num in numbers:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    if not (num % 2 == 0):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        result = False
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        break
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(result)  # True</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{7D8846C2-9A0A-2841-8500-1FEC80A69172}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Правила истинности в Python</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Истинные значения</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Любое ненулевое число, непустая строка, список, объект и т. д.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ложные значения</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 0, None, False, пустые объекты ([], {}, "").
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Особенности и важные моменты</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Возвращает </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>True</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> для пустого итерируемого объекта:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(all([]))  # True
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Это связано с тем, что нет элементов, которые могли бы быть ложными.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Останавливается на первом ложном элементе (ленивое вычисление):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Если в итерируемом объекте найден хотя бы один ложный элемент, all() не проверяет остальные.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Работает с любыми итерируемыми объектами:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(all({1, 2, 3}))       # True
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(all((True, False)))  # False
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(all({'a': 1, 'b': 0}))  # True (ключи проверяются, не значения)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{F0F09535-93E0-0642-832C-23096AC1C2A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. Проверка списка с истинными значениями
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = [1, 2, 3, 4]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(all(numbers))  # True
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>2. Проверка списка с ложными значениями</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mixed = [1, 0, 3]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(all(mixed))  # False (из-за 0)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>3. Проверка пустого итерируемого объекта</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">empty = []
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(all(empty))  # True (особенность функции)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>4. Проверка строк</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">words = ["hello", "world", ""]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(all(words))  # False (из-за пустой строки "")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>5. Проверка условия через генератор</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = [2, 4, 6, 8]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(all(num % 2 == 0 for num in numbers))  # True (все числа четные)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{1A3A77E7-E1E3-0E4E-B0B1-C1D9D8719921}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• iterable — любой итерируемый объект (список, кортеж, строка, множество, генератор и т. д.).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Возвращает:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• True, если хотя бы один элемент истинен.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• False, если все элементы ложные или объект пуст.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{E820A7D2-C0A8-DA48-A18D-7A168F8BD096}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">numbers = [0, 1, 2, 3]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">result = False
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">for num in numbers:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    if num:  # Проверка истинности
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">        result = True
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">        break
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>print(result)  # True</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{29EDF196-9331-5B4D-9116-314EBDA98C08}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Истинные значения</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Любое ненулевое число, непустая строка, список, объект и т. д.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ложные значения</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 0, None, False, пустые объекты ([], {}, "").
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Особенности и важные моменты</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Возвращает </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>False</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> для пустого итерируемого объекта:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(any([]))  # False
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Это связано с тем, что в пустом объекте нет истинных элементов.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Останавливается на первом истинном элементе (ленивое вычисление):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Если найден истинный элемент, any() завершает проверку оставшихся.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Работает с любыми итерируемыми объектами:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(any({0, 0, 1}))       # True (1 истинен)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(any((False, True)))  # True (есть True)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(any({'a': 0, 'b': 0}))  # True (проверяются ключи, а не значения)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{38CBBFB5-EDAD-4443-B5FD-76C124643205}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. Проверка списка с истинными значениями
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = [0, 1, 2, 3]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(any(numbers))  # True (есть 1, 2, 3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>2. Проверка списка с ложными значениями</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">all_false = [0, None, False]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(any(all_false))  # False (все элементы ложные)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>3. Проверка пустого итерируемого объекта</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">empty = []
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(any(empty))  # False (особенность функции)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>4. Проверка строк</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">words = ["", "hello", ""]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">print(any(words))  # True (есть непустая строка "hello")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>5. Проверка условий с генератором</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">numbers = [1, 2, 3, 4]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>print(any(num % 2 == 0 for num in numbers))  # True (2 и 4 — четные)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{3688CBA2-BEFA-3E49-ADC7-38547C85DAF9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• key: ключ, значение которого нужно получить.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• default_value </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(необязательно)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>: значение, которое будет возвращено, если ключ не найден (по умолчанию None).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D585AB49-F565-EB44-A15C-6FE06790E4A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Описание:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Безопасность</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Метод get() удобен, когда вы не уверены, есть ли ключ в словаре. Он предотвращает ошибку KeyError, возвращая None или указанное значение по умолчанию.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Гибкость</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: Позволяет указать значение по умолчанию, что полезно для обработки отсутствующих ключей.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{63CBA3AB-4B3E-C64F-B83A-9F277A574371}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict = {"name": "Alice", "age": 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Получаем значение существующего ключа
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_dict.get("name"))       
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Вывод: Alice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Пытаемся получить значение несуществующего ключа без указания значения по умолчанию
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_dict.get("city"))       
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Вывод: None
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Пытаемся получить значение несуществующего ключа с указанием значения по умолчанию
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_dict.get("city", "Unknown"))  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t># Вывод: Unknown</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0" xr:uid="{083A7EB9-A7D4-C240-9B39-523C9144B6F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• other_dict_or_iterable: словарь или итерируемый объект, содержащий пары ключ-значение, которые нужно добавить или обновить. Итерируемым объектом может быть, например, список кортежей вида [(ключ, значение), ...].
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{F8EEEAB5-B501-5C45-BD5B-FF0656F5A244}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Метод update() изменяет словарь dict на месте, не возвращая нового объекта.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Полезен для объединения словарей или добавления значений, без необходимости создавать новый словарь.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Если ключи совпадают, метод обновляет значение, заменяя старое новым; если ключей нет, добавляет их.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{CBE69124-8051-5641-AA6B-506FE0AF1A38}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Обновление словарем</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict = {"name": "Alice", "age": 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">other_dict = {"age": 30, "city": "New York"}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict.update(other_dict)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_dict)  # Вывод: {'name': 'Alice', 'age': 30, 'city': 'New York'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Здесь значение ключа "age" обновлено, а ключ "city" добавлен.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Обновление списком кортежей</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict = {"name": "Alice", "age": 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">updates = [("age", 30), ("city", "New York")]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict.update(updates)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_dict)  # Вывод: {'name': 'Alice', 'age': 30, 'city': 'New York'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Добавление новых пар ключ-значение</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict = {"name": "Alice"}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict.update({"age": 25, "city": "New York"})
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_dict)  # Вывод: {'name': 'Alice', 'age': 25, 'city': 'New York'}
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{DB06EAE8-234C-FE4D-A588-E14E6A0A7605}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• key: ключ, значение которого нужно получить или установить.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• default_value </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(необязательно)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>: значение, которое будет установлено, если ключ отсутствует. По умолчанию это None.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{62D7A93D-93DB-7F42-ABFD-2A5F3E42C4A6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Если ключ </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>уже существует</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> в словаре, setdefault() просто возвращает его значение и не меняет словарь.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Если ключ </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>отсутствует</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, метод добавляет его с указанным значением по умолчанию (или None, если значение по умолчанию не указано).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Метод setdefault заменяет такую конструкцию:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In [30]: if key in london:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    ...:     value = london[key]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    ...: else:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    ...:     london[key] = 'somevalue'
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    ...:     value = london[key]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    ...:</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{C1CD74FC-E9B6-D24B-B15B-3F1AEB6D3836}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict = {"name": "Alice", "age": 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Получаем значение существующего ключа
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">result = my_dict.setdefault("name", "Unknown")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(result)  # Вывод: Alice
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_dict) # Вывод: {'name': 'Alice', 'age': 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Добавляем отсутствующий ключ с значением по умолчанию
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">result = my_dict.setdefault("city", "Unknown")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(result)  # Вывод: Unknown
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>print(my_dict) # Вывод: {'name': 'Alice', 'age': 25, 'city': 'Unknown'}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{51916DFD-ABE6-144A-9047-1AF28B5187C3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Оператор del позволяет освобождать память и удалять ненужные элементы из структур данных.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Если попытаться использовать удалённый элемент или переменную, произойдет ошибка NameError.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{90C5BF0B-EA63-4E46-A93C-FD3DF483103D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление переменной</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">x = 10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">del x
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(x)  # Ошибка: NameError, переменная x не определена
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление элемента списка по индексу</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_list = [1, 2, 3, 4]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">del my_list[2]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_list)  # Вывод: [1, 2, 4]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление элемента словаря по ключу</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_dict = {"name": "Alice", "age": 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">del my_dict["age"]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_dict)  # Вывод: {'name': 'Alice'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">4. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление среза списка</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">my_list = [1, 2, 3, 4, 5]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">del my_list[1:4]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(my_list)  # Вывод: [1, 5]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление объекта</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">class MyClass:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    pass
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">obj = MyClass()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>del obj</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{3FC13794-09F4-184C-8453-5D73A3903CFB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• key: ключ элемента, который нужно удалить.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• default: значение, которое возвращается, если ключ отсутствует. Если default не указан и ключ не найден, возникнет KeyError.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{18607952-A25C-D042-A139-FCA66F9AD688}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Метод pop() изменяет словарь на месте, удаляя указанный элемент.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Удобен для безопасного удаления элементов из словаря, особенно с указанием значения по умолчанию.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{D6AA136B-598B-044B-AEF4-A4D943F618E1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление элемента по ключу</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">person = {"name": "Alice", "age": 25, "city": "New York"}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">age = person.pop("age")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(age)         # Вывод: 25
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(person)      # Вывод: {'name': 'Alice', 'city': 'New York'}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление элемента с использованием значения по умолчанию</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">person = {"name": "Alice", "age": 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">country = person.pop("country", "Unknown")
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(country)     # Вывод: Unknown
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(person)      # Вывод: {'name': 'Alice', 'age': 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Попытка удалить несуществующий ключ без значения по умолчанию</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">person = {"name": "Alice", "age": 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>age = person.pop("city")  # KeyError: 'city'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{09EFD9F7-98A7-814D-B47C-826090BD49D1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Метод не принимает параметров.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Возвращает кортеж из ключа и значения удаленного элемента.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>• Если словарь пуст, вызов popitem() вызывает ошибку KeyError.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0" shapeId="0" xr:uid="{96AA0DA3-BA27-8E43-8837-E283FF8C5494}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>тот метод полезен, если нужно поочередно удалять элементы из словаря, начиная с последнего добавленного (при соблюдении порядка ключей).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{84C12988-D8F6-744C-92FB-305122666942}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Метод popitem() подходит для реализации структур данных, напоминающих стек, когда нужно последовательно удалять элементы с конца.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">• Начиная с Python 3.7, порядок добавления элементов в словарь сохраняется, поэтому popitem() удаляет последний добавленный элемент, что делает поведение этого метода более предсказуемым.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{07F509D6-7029-FC43-B391-041CD3137564}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Удаление последней пары</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">person = {"name": "Alice", "age": 25, "city": "New York"}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">item = person.popitem()
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(item)        # Вывод: ('city', 'New York')
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">print(person)      # Вывод: {'name': 'Alice', 'age': 25}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Использование </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>popitem()</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> в пустом словаре</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">empty_dict = {}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">empty_dict.popitem()  # KeyError: 'popitem(): dictionary is empty'
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Последовательное удаление всех элементов</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">numbers = {"one": 1, "two": 2, "three": 3}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">while numbers:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">    print(numbers.popitem())  # Выводит и удаляет каждый элемент, начиная с последнего.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># Вывод:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># ('three', 3)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve"># ('two', 2)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t># ('one', 1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{B1897A8D-9D57-DA42-90D9-AC3A3EB73EAB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">• После вызова </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">clear(), </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">словарь становится пустым {}, но сам объект </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">dict </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">продолжает существовать.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>• Этот метод не принимает аргументов и не возвращает значений.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{45501A09-6FC3-7744-B120-0BA628925652}">
       <text>
         <r>
@@ -34952,7 +40132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="609">
   <si>
     <t>Термин</t>
   </si>
@@ -36861,12 +42041,283 @@
   <si>
     <t>max() — встроенная функция Python, которая возвращает максимальный или минимальный элемент из переданного итерируемого объекта или из нескольких переданных аргументов.</t>
   </si>
+  <si>
+    <t>my_dict = {
+    ключ1: значение1,
+    ключ2: значение2,
+    ...
+}</t>
+  </si>
+  <si>
+    <t>Создать словарь в Python можно с помощью литерала {} — фигурных скобок, содержащих пары ключ-значение, разделённые двоеточиями.</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>dict()  # Создает пустой словарь
+dict(key1=value1, key2=value2, ...)  # Использование именованных аргументов
+dict([(ключ1, значение1), (ключ2, значение2), ...])  # Использование списка кортежей
+dict({ключ1: значение1, ключ2: значение2, ...})  # Использование другого словаря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dict() — встроенный конструктор в Python для создания словаря. </t>
+  </si>
+  <si>
+    <t>Создание с помощью функции</t>
+  </si>
+  <si>
+    <t>dict.fromkeys(iterable, value=None)</t>
+  </si>
+  <si>
+    <t>Метод fromkeys() в Python используется для создания нового словаря, в котором ключи берутся из заданного итерируемого объекта, а значения всех ключей устанавливаются в указанное значение (по умолчанию — None).</t>
+  </si>
+  <si>
+    <t>Описание:</t>
+  </si>
+  <si>
+    <t>Возвращает созданный dict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Хранение данных в виде пар “ключ → значение”.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	•	Ключи уникальны.
+	•	Значения могут повторяться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неупорядоченность (до Python 3.6 включительно).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	•	С Python 3.7 сохраняется порядок вставки элементов (но это свойство не гарантировалось до 3.7).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изменяемость.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	•	Можно добавлять, изменять и удалять элементы.</t>
+  </si>
+  <si>
+    <t>Ключи должны быть хэшируемыми.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	•	Можно использовать: int, float, str, tuple.
+	•	Нельзя: list, dict, set (изменяемые типы).</t>
+  </si>
+  <si>
+    <t>Быстрый доступ по ключу.</t>
+  </si>
+  <si>
+    <t>•	Операции поиска, добавления и удаления выполняются в среднем за O(1).</t>
+  </si>
+  <si>
+    <t>Поддержка методов для работы с коллекцией.</t>
+  </si>
+  <si>
+    <t>.keys(), .values(), .items(), .get(), .update().</t>
+  </si>
+  <si>
+    <t>Основные операции с dict</t>
+  </si>
+  <si>
+    <t>d = {"a": 1, "b": 2, "c": 3}
+print(d["a"])        # 1
+print("b" in d)      # True
+d["d"] = 4           # добавление
+d["a"] = 10          # обновление
+print(d.keys())      # dict_keys(['a', 'b', 'c', 'd'])</t>
+  </si>
+  <si>
+    <t>наличие ключа</t>
+  </si>
+  <si>
+    <t>"a" in {"a":1} → True</t>
+  </si>
+  <si>
+    <t>количество пар ключ–значение</t>
+  </si>
+  <si>
+    <t>максимальный и минимальный ключ</t>
+  </si>
+  <si>
+    <t>сумма ключей (если числа)</t>
+  </si>
+  <si>
+    <t>все ключи истинные?</t>
+  </si>
+  <si>
+    <t>есть хотя бы один истинный ключ?</t>
+  </si>
+  <si>
+    <t>any({0:"x",2:"y"}) → True</t>
+  </si>
+  <si>
+    <t>all({1:"x",2:"y"}) → True</t>
+  </si>
+  <si>
+    <t>sum({1:"x",2:"y"}) → 3</t>
+  </si>
+  <si>
+    <t>max({"a":1,"c":2}) → "c"
+min({"a":1,"c":2}) → "a"</t>
+  </si>
+  <si>
+    <t>len({"a":1,"b":2}) → 2</t>
+  </si>
+  <si>
+    <t>Доступ к элементу</t>
+  </si>
+  <si>
+    <t>dict[key]</t>
+  </si>
+  <si>
+    <t>dict.get(key, default_value)</t>
+  </si>
+  <si>
+    <t>Метод get() в Python используется для получения значения, связанного с заданным ключом в словаре.</t>
+  </si>
+  <si>
+    <t>Возвращает значение</t>
+  </si>
+  <si>
+    <t>d["a"]       # 1</t>
+  </si>
+  <si>
+    <t>Добавление и обновление</t>
+  </si>
+  <si>
+    <t>d["c"] = 3       # добавить новый ключ
+d["a"] = 100     # обновить значение</t>
+  </si>
+  <si>
+    <t>dict[key] = value</t>
+  </si>
+  <si>
+    <t>Проверка и добавление</t>
+  </si>
+  <si>
+    <t>dict.setdefault(key, default_value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод setdefault() в Python используется для получения значения по заданному ключу в словаре. </t>
+  </si>
+  <si>
+    <t>dict.update([other_dict_or_iterable])</t>
+  </si>
+  <si>
+    <t>Метод update() в Python используется для обновления словаря парами ключ-значение из другого словаря или итерируемого объекта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Описание</t>
+  </si>
+  <si>
+    <t>Невозвращает</t>
+  </si>
+  <si>
+    <t>Удаление</t>
+  </si>
+  <si>
+    <t>del variable  # Удаление переменной
+del list[index]  # Удаление элемента списка по индексу
+del dict[key]  # Удаление элемента словаря по ключу
+del object  # Удаление объекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del — это оператор в Python, который удаляет переменные, элементы в контейнерах (например, словарях и списках) или даже полностью объекты. </t>
+  </si>
+  <si>
+    <t>dict.pop(key, default=None)</t>
+  </si>
+  <si>
+    <t>Метод pop() в Python удаляет элемент из словаря по указанному ключу и возвращает его значение</t>
+  </si>
+  <si>
+    <t>Возвращает значение удаленного элемента</t>
+  </si>
+  <si>
+    <t>dict.popitem()</t>
+  </si>
+  <si>
+    <t>Метод popitem() в Python удаляет и возвращает последнюю пару (ключ, значение) из словаря.</t>
+  </si>
+  <si>
+    <t>Примеры:</t>
+  </si>
+  <si>
+    <t>Возвращает в виде кортежа удаленные ключ и значение</t>
+  </si>
+  <si>
+    <t>Копирование</t>
+  </si>
+  <si>
+    <t>new_dict = dict.copy()</t>
+  </si>
+  <si>
+    <t>Метод copy() в Python создает поверхностную копию словаря.</t>
+  </si>
+  <si>
+    <t>Очистка</t>
+  </si>
+  <si>
+    <t>dict.clear()</t>
+  </si>
+  <si>
+    <t>Метод clear() в Python используется для удаления всех элементов из словаря, делая его пустым.</t>
+  </si>
+  <si>
+    <t>my_dict = {"name": "Alice", "age": 25, "city": "New York"}
+print(my_dict)   # Вывод: {'name': 'Alice', 'age': 25, 'city': 'New York'}
+my_dict.clear()
+print(my_dict)   # Вывод: {}</t>
+  </si>
+  <si>
+    <t>Просмотр содержимого</t>
+  </si>
+  <si>
+    <t>dict.keys()</t>
+  </si>
+  <si>
+    <t>Метод keys() в Python используется для получения всех ключей из словаря в виде специального представления — dict_keys</t>
+  </si>
+  <si>
+    <t>возвращают специальные объекты view</t>
+  </si>
+  <si>
+    <t>dict.values()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метод values() в Python используется для получения всех значений из словаря в виде объекта dict_values. </t>
+  </si>
+  <si>
+    <t>dict.items()</t>
+  </si>
+  <si>
+    <t>Метод items() в Python возвращает все пары ключ-значение из словаря в виде объектов dict_items, представляющих собой список кортежей (ключ, значение).</t>
+  </si>
+  <si>
+    <t>Сортировка</t>
+  </si>
+  <si>
+    <t>dict(sorted(dict.items(), key = lambda(I, item[1])</t>
+  </si>
+  <si>
+    <t>dict(sorted(my_dict.items())</t>
+  </si>
+  <si>
+    <t>Сортировка по значениям</t>
+  </si>
+  <si>
+    <t>Сортировка по ключам</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -36893,6 +42344,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -36944,6 +42402,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -37102,7 +42567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -37215,7 +42680,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -37232,6 +42697,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -37282,23 +42750,41 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -37616,7 +43102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7760073-D839-F34A-969A-AD1056E1644E}">
   <dimension ref="A2:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
@@ -38103,7 +43589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF53A5C-33E6-C142-9C4E-E1B99F1A0002}">
   <dimension ref="A2:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -38912,7 +44398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B27660-EE1F-FE4F-B837-D80E0C5DA1D5}">
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
@@ -38965,13 +44451,13 @@
       <c r="A4" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="54" t="s">
         <v>370</v>
       </c>
       <c r="E4" s="20" t="s">
@@ -38994,16 +44480,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -39012,7 +44498,7 @@
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2" t="s">
         <v>524</v>
       </c>
@@ -39028,44 +44514,44 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="73" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="63" t="s">
         <v>523</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="73" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="66" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -39082,14 +44568,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="67" t="s">
         <v>380</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="52" t="s">
         <v>382</v>
       </c>
       <c r="E11" s="14" t="s">
@@ -39100,16 +44586,16 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>518</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="54" t="s">
         <v>376</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -39120,14 +44606,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="67" t="s">
         <v>384</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="52" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="52" t="s">
         <v>386</v>
       </c>
       <c r="E13" s="14" t="s">
@@ -39138,14 +44624,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -39156,14 +44642,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="66" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="52" t="s">
         <v>391</v>
       </c>
       <c r="E15" s="14" t="s">
@@ -39174,14 +44660,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="66" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="52" t="s">
         <v>395</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -39192,14 +44678,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="67" t="s">
         <v>396</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="52" t="s">
         <v>398</v>
       </c>
       <c r="E17" s="14" t="s">
@@ -39210,14 +44696,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="64" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="65" t="s">
         <v>399</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="54" t="s">
         <v>398</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -39228,14 +44714,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="67" t="s">
         <v>402</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="52" t="s">
         <v>404</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -39246,14 +44732,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="64" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="54" t="s">
         <v>398</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -39264,14 +44750,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="64" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="20" t="s">
@@ -39282,14 +44768,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="54" t="s">
         <v>411</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="54" t="s">
         <v>398</v>
       </c>
       <c r="E22" s="20" t="s">
@@ -39425,7 +44911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F240AC3B-D437-C14B-AF82-87D43D6A8125}">
   <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -39507,7 +44993,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>425</v>
       </c>
       <c r="B6" s="2"/>
@@ -39518,7 +45004,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>428</v>
@@ -39527,7 +45013,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
         <v>426</v>
@@ -39549,7 +45035,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>431</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -39564,7 +45050,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="2" t="s">
         <v>524</v>
       </c>
@@ -39579,14 +45065,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="64" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -39594,43 +45080,43 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="73" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="63" t="s">
         <v>523</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="73" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="5" t="s">
         <v>434</v>
       </c>
@@ -39643,7 +45129,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="5" t="s">
         <v>436</v>
       </c>
@@ -39656,7 +45142,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="5" t="s">
         <v>438</v>
       </c>
@@ -39669,7 +45155,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="5" t="s">
         <v>440</v>
       </c>
@@ -39682,7 +45168,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="5" t="s">
         <v>442</v>
       </c>
@@ -39693,32 +45179,32 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="68" t="s">
         <v>450</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="69" t="s">
         <v>411</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="70" t="s">
         <v>398</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="69" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="71" t="s">
         <v>451</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="72" t="s">
         <v>452</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71" t="s">
+      <c r="D21" s="72"/>
+      <c r="E21" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -39881,8 +45367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372A9287-2836-E549-83E2-B80B810FCB5B}">
   <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39948,7 +45434,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>425</v>
       </c>
       <c r="B5" s="2"/>
@@ -39959,7 +45445,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>463</v>
@@ -39968,7 +45454,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
         <v>464</v>
@@ -39977,7 +45463,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="58" t="s">
         <v>465</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -39990,7 +45476,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="2" t="s">
         <v>524</v>
       </c>
@@ -40005,14 +45491,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="64" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -40020,43 +45506,43 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="63" t="s">
         <v>519</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="63" t="s">
         <v>523</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="73" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="2" t="s">
         <v>468</v>
       </c>
@@ -40067,7 +45553,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="2" t="s">
         <v>469</v>
       </c>
@@ -40078,7 +45564,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="2" t="s">
         <v>471</v>
       </c>
@@ -40089,7 +45575,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="2" t="s">
         <v>473</v>
       </c>
@@ -40100,7 +45586,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="2" t="s">
         <v>475</v>
       </c>
@@ -40111,7 +45597,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2" t="s">
         <v>477</v>
       </c>
@@ -40122,7 +45608,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="58" t="s">
         <v>479</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -40142,7 +45628,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="2" t="s">
         <v>490</v>
       </c>
@@ -40160,7 +45646,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="2" t="s">
         <v>491</v>
       </c>
@@ -40178,7 +45664,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="2" t="s">
         <v>492</v>
       </c>
@@ -40196,7 +45682,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>493</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -40216,7 +45702,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="14" t="s">
         <v>497</v>
       </c>
@@ -40232,7 +45718,7 @@
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="14" t="s">
         <v>500</v>
       </c>
@@ -40250,7 +45736,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="14" t="s">
         <v>503</v>
       </c>
@@ -40268,7 +45754,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="14" t="s">
         <v>506</v>
       </c>
@@ -40286,7 +45772,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="14" t="s">
         <v>509</v>
       </c>
@@ -40304,7 +45790,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="14" t="s">
         <v>513</v>
       </c>
@@ -40422,10 +45908,584 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679D39D3-6E46-0746-86C1-3A2DE9EAEA68}">
+  <dimension ref="A2:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>529</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>529</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>534</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="76"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="76"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="76"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="77"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="75" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="76"/>
+      <c r="B13" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="76"/>
+      <c r="B14" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="76"/>
+      <c r="B15" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="76"/>
+      <c r="B16" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="77"/>
+      <c r="B17" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="77"/>
+      <c r="B19" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="77"/>
+      <c r="B21" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="75" t="s">
+        <v>579</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="76"/>
+      <c r="B24" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="77"/>
+      <c r="B25" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>535</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>590</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>529</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>597</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>598</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>535</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="76"/>
+      <c r="B29" s="71" t="s">
+        <v>600</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>601</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>535</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A30" s="77"/>
+      <c r="B30" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>603</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>535</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="75" t="s">
+        <v>604</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="77"/>
+      <c r="B32" s="71" t="s">
+        <v>606</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="D32" s="79"/>
+      <c r="E32" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A12:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B01DB2-B527-6341-A936-A3E0C717D677}">
   <dimension ref="A2:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -40457,8 +46517,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50" t="s">
         <v>244</v>
       </c>
       <c r="C3" s="35"/>
@@ -40795,7 +46855,7 @@
         <v>318</v>
       </c>
       <c r="D29" s="20"/>
-      <c r="E29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
@@ -40806,7 +46866,7 @@
         <v>320</v>
       </c>
       <c r="D30" s="20"/>
-      <c r="E30" s="54"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
@@ -40820,7 +46880,7 @@
       <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="51" t="s">
         <v>324</v>
       </c>
       <c r="B32" s="18"/>
@@ -40833,91 +46893,91 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="18"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="18"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="18"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="18"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="18"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="18"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="18"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="18"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="18"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="30"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="18"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="18"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="18"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -40936,11 +46996,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB05AA4-67E3-324D-83FA-9E98FFEBAC8D}">
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E6" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -40977,21 +47037,21 @@
       <c r="B3" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="61" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>342</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -41006,12 +47066,12 @@
       <c r="E4" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="3" t="s">
         <v>329</v>
       </c>
@@ -41029,7 +47089,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="3" t="s">
         <v>331</v>
       </c>
@@ -41047,7 +47107,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>343</v>
       </c>
       <c r="C7" s="2"/>
@@ -41060,7 +47120,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="58"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>346</v>
@@ -41069,7 +47129,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>350</v>
@@ -41082,7 +47142,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="B10" s="58"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>348</v>
@@ -41095,7 +47155,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B11" s="58"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>353</v>
@@ -41106,7 +47166,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="B12" s="59"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>355</v>
@@ -41308,8 +47368,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679D39D3-6E46-0746-86C1-3A2DE9EAEA68}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712C25A3-195A-DB40-86EF-D6B63A0AC1A6}">
   <dimension ref="A2:E37"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
